--- a/crawing/merged_df.xlsx
+++ b/crawing/merged_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,36 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 / 5 / 5</t>
+          <t>1 / 2 / 5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7 / 1 / 1</t>
+          <t>4 / 3 / 6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5 / 6 / 4</t>
+          <t>3 / 2 / 1</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6 / 1 / 1</t>
+          <t>11 / 4 / 5</t>
         </is>
       </c>
     </row>
@@ -501,43 +501,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7 / 0 / 12</t>
+          <t>3 / 5 / 9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5 / 6 / 6</t>
+          <t>12 / 1 / 4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9 / 2 / 13</t>
+          <t>3 / 7 / 2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4 / 1 / 3</t>
+          <t>7 / 7 / 4</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8 / 4 / 9</t>
+          <t>22 / 11 / 35</t>
         </is>
       </c>
     </row>
@@ -561,67 +561,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3 / 0 / 1</t>
+          <t>14 / 7 / 22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3 / 5 / 1</t>
+          <t>9 / 5 / 16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 / 5 / 8</t>
+          <t>4 / 4 / 3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 / 2 / 1</t>
+          <t>6 / 8 / 2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2 / 3 / 5</t>
+          <t>2 / 4 / 4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4 / 2 / 12</t>
+          <t>2 / 2 / 5</t>
         </is>
       </c>
     </row>
@@ -633,31 +633,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10 / 1 / 7</t>
+          <t>1 / 1 / 5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 / 2 / 6</t>
+          <t>7 / 2 / 5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0 / 3 / 1</t>
+          <t>8 / 5 / 3</t>
         </is>
       </c>
     </row>
@@ -669,19 +669,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8 / 2 / 3</t>
+          <t>16 / 6 / 9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6 / 1 / 5</t>
+          <t>3 / 10 / 5</t>
         </is>
       </c>
     </row>
@@ -693,43 +693,43 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4 / 5 / 10</t>
+          <t>7 / 3 / 4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10 / 6 / 13</t>
+          <t>4 / 3 / 8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0 / 2 / 3</t>
+          <t>9 / 2 / 7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4 / 2 / 0</t>
+          <t>7 / 5 / 7</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1 / 6 / 2</t>
+          <t>5 / 6 / 5</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4 / 9 / 13</t>
+          <t>9 / 8 / 8</t>
         </is>
       </c>
     </row>
@@ -765,19 +765,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8 / 3 / 5</t>
+          <t>12 / 4 / 12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1 / 4 / 11</t>
+          <t>4 / 6 / 5</t>
         </is>
       </c>
     </row>
@@ -789,43 +789,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3 / 4 / 15</t>
+          <t>6 / 3 / 8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3 / 3 / 3</t>
+          <t>8 / 1 / 5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7 / 3 / 13</t>
+          <t>1 / 5 / 1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2 / 4 / 5</t>
+          <t>3 / 10 / 11</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7 / 5 / 10</t>
+          <t>6 / 2 / 6</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2 / 2 / 12</t>
+          <t>3 / 0 / 6</t>
         </is>
       </c>
     </row>
@@ -861,43 +861,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4 / 5 / 1</t>
+          <t>7 / 12 / 4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0 / 3 / 1</t>
+          <t>7 / 2 / 13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1 / 2 / 3</t>
+          <t>2 / 9 / 10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6 / 5 / 5</t>
+          <t>8 / 1 / 3</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4 / 1 / 3</t>
+          <t>4 / 0 / 1</t>
         </is>
       </c>
     </row>
@@ -921,31 +921,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7 / 0 / 5</t>
+          <t>5 / 4 / 14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1 / 5 / 9</t>
+          <t>10 / 3 / 9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10 / 2 / 1</t>
+          <t>3 / 5 / 5</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2 / 0 / 5</t>
+          <t>7 / 1 / 1</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5 / 7 / 8</t>
+          <t>5 / 6 / 4</t>
         </is>
       </c>
     </row>
@@ -981,31 +981,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4 / 3 / 11</t>
+          <t>6 / 1 / 1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4 / 4 / 9</t>
+          <t>7 / 0 / 12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7 / 0 / 5</t>
+          <t>5 / 6 / 6</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10 / 2 / 14</t>
+          <t>9 / 2 / 13</t>
         </is>
       </c>
     </row>
@@ -1029,31 +1029,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3 / 0 / 7</t>
+          <t>4 / 1 / 3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6 / 5 / 6</t>
+          <t>8 / 4 / 9</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4 / 5 / 7</t>
+          <t>3 / 0 / 1</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5 / 5 / 2</t>
+          <t>3 / 5 / 1</t>
         </is>
       </c>
     </row>
@@ -1077,31 +1077,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4 / 2 / 5</t>
+          <t>1 / 5 / 8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11 / 5 / 7</t>
+          <t>3 / 2 / 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1 / 5 / 5</t>
+          <t>2 / 3 / 5</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11 / 3 / 24</t>
+          <t>4 / 2 / 12</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15 / 7 / 16</t>
+          <t>10 / 1 / 7</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1 / 5 / 2</t>
+          <t>1 / 2 / 6</t>
         </is>
       </c>
     </row>
@@ -1149,19 +1149,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3 / 5 / 5</t>
+          <t>0 / 3 / 1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11 / 4 / 17</t>
+          <t>8 / 2 / 3</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>9 / 4 / 7</t>
+          <t>6 / 1 / 5</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7 / 0 / 0</t>
+          <t>4 / 5 / 10</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>9 / 0 / 4</t>
+          <t>10 / 6 / 13</t>
         </is>
       </c>
     </row>
@@ -1209,43 +1209,43 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5 / 7 / 2</t>
+          <t>0 / 2 / 3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>9 / 9 / 6</t>
+          <t>4 / 2 / 0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7 / 3 / 5</t>
+          <t>1 / 6 / 2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11 / 3 / 5</t>
+          <t>4 / 9 / 13</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7 / 10 / 16</t>
+          <t>8 / 3 / 5</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4 / 6 / 21</t>
+          <t>1 / 4 / 11</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3 / 2 / 13</t>
+          <t>3 / 4 / 15</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7 / 4 / 6</t>
+          <t>3 / 3 / 3</t>
         </is>
       </c>
     </row>
@@ -1305,19 +1305,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4 / 2 / 8</t>
+          <t>7 / 3 / 13</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5 / 0 / 2</t>
+          <t>2 / 4 / 5</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1 / 6 / 10</t>
+          <t>7 / 5 / 10</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6 / 4 / 12</t>
+          <t>2 / 2 / 12</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8 / 6 / 3</t>
+          <t>4 / 5 / 1</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8 / 4 / 4</t>
+          <t>0 / 3 / 1</t>
         </is>
       </c>
     </row>
@@ -1377,19 +1377,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5 / 0 / 1</t>
+          <t>1 / 2 / 3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10 / 3 / 13</t>
+          <t>6 / 5 / 5</t>
         </is>
       </c>
     </row>
@@ -1401,19 +1401,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7 / 5 / 8</t>
+          <t>4 / 1 / 3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5 / 7 / 5</t>
+          <t>7 / 0 / 5</t>
         </is>
       </c>
     </row>
@@ -1425,19 +1425,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7 / 8 / 3</t>
+          <t>1 / 5 / 9</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5 / 9 / 4</t>
+          <t>10 / 2 / 1</t>
         </is>
       </c>
     </row>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>9 / 3 / 6</t>
+          <t>2 / 0 / 5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3 / 3 / 1</t>
+          <t>5 / 7 / 8</t>
         </is>
       </c>
     </row>
@@ -1473,19 +1473,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2 / 3 / 1</t>
+          <t>4 / 3 / 11</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5 / 0 / 1</t>
+          <t>4 / 4 / 9</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20 / 5 / 8</t>
+          <t>7 / 0 / 5</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9 / 4 / 3</t>
+          <t>10 / 2 / 14</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8 / 1 / 2</t>
+          <t>3 / 0 / 7</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7 / 11 / 13</t>
+          <t>6 / 5 / 6</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6 / 9 / 11</t>
+          <t>4 / 5 / 7</t>
         </is>
       </c>
     </row>
@@ -1557,43 +1557,43 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4 / 5 / 6</t>
+          <t>5 / 5 / 2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5 / 3 / 9</t>
+          <t>4 / 2 / 5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4 / 7 / 16</t>
+          <t>11 / 5 / 7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>8 / 1 / 8</t>
+          <t>1 / 5 / 5</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3 / 1 / 4</t>
+          <t>11 / 3 / 24</t>
         </is>
       </c>
     </row>
@@ -1617,19 +1617,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8 / 7 / 3</t>
+          <t>15 / 7 / 16</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15 / 4 / 1</t>
+          <t>1 / 5 / 2</t>
         </is>
       </c>
     </row>
@@ -1641,19 +1641,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>13 / 8 / 2</t>
+          <t>3 / 5 / 5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>다시하기</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0 / 0 / 0</t>
+          <t>11 / 4 / 17</t>
         </is>
       </c>
     </row>
@@ -1665,19 +1665,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3 / 1 / 4</t>
+          <t>9 / 4 / 7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4 / 7 / 7</t>
+          <t>7 / 0 / 0</t>
         </is>
       </c>
     </row>
@@ -1689,43 +1689,43 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7 / 4 / 16</t>
+          <t>9 / 0 / 4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8 / 0 / 2</t>
+          <t>5 / 7 / 2</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5 / 4 / 10</t>
+          <t>9 / 9 / 6</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1 / 2 / 1</t>
+          <t>7 / 3 / 5</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8 / 0 / 8</t>
+          <t>11 / 3 / 5</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10 / 2 / 7</t>
+          <t>7 / 10 / 16</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5 / 6 / 6</t>
+          <t>4 / 6 / 21</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5 / 1 / 9</t>
+          <t>3 / 2 / 13</t>
         </is>
       </c>
     </row>
@@ -1785,19 +1785,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5 / 7 / 4</t>
+          <t>7 / 4 / 6</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5 / 4 / 2</t>
+          <t>4 / 2 / 8</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>11 / 1 / 15</t>
+          <t>5 / 0 / 2</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8 / 5 / 5</t>
+          <t>1 / 6 / 10</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7 / 5 / 12</t>
+          <t>6 / 4 / 12</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1 / 1 / 7</t>
+          <t>8 / 6 / 3</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3 / 3 / 4</t>
+          <t>8 / 4 / 4</t>
         </is>
       </c>
     </row>
@@ -1869,259 +1869,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8 / 2 / 3</t>
+          <t>5 / 0 / 1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10 / 7 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>4 / 7 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>5 / 3 / 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2 / 5 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>1 / 5 / 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>3 / 2 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>9 / 5 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>3 / 8 / 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>4 / 3 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>9 / 6 / 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>4 / 6 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>9 / 2 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2 / 6 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>13 / 2 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>11 / 5 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>8 / 5 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>9 / 4 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1 / 5 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>3 / 5 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>7 / 6 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>8 / 5 / 2</t>
+          <t>10 / 3 / 13</t>
         </is>
       </c>
     </row>

--- a/crawing/merged_df.xlsx
+++ b/crawing/merged_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 / 2 / 5</t>
+          <t>3 / 12 / 18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 / 3 / 6</t>
+          <t>5 / 10 / 13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 / 2 / 1</t>
+          <t>5 / 8 / 7</t>
         </is>
       </c>
     </row>
@@ -489,31 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11 / 4 / 5</t>
+          <t>6 / 9 / 15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3 / 5 / 9</t>
+          <t>0 / 5 / 1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12 / 1 / 4</t>
+          <t>1 / 10 / 2</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3 / 7 / 2</t>
+          <t>1 / 10 / 12</t>
         </is>
       </c>
     </row>
@@ -537,31 +537,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7 / 7 / 4</t>
+          <t>7 / 6 / 5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22 / 11 / 35</t>
+          <t>11 / 16 / 21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14 / 7 / 22</t>
+          <t>15 / 10 / 8</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9 / 5 / 16</t>
+          <t>10 / 5 / 21</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4 / 4 / 3</t>
+          <t>20 / 6 / 9</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6 / 8 / 2</t>
+          <t>5 / 3 / 17</t>
         </is>
       </c>
     </row>
@@ -609,79 +609,79 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2 / 4 / 4</t>
+          <t>5 / 8 / 4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2 / 2 / 5</t>
+          <t>14 / 3 / 1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1 / 1 / 5</t>
+          <t>14 / 6 / 2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7 / 2 / 5</t>
+          <t>9 / 5 / 4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8 / 5 / 3</t>
+          <t>17 / 14 / 14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16 / 6 / 9</t>
+          <t>19 / 6 / 6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3 / 10 / 5</t>
+          <t>1 / 10 / 18</t>
         </is>
       </c>
     </row>
@@ -693,19 +693,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7 / 3 / 4</t>
+          <t>7 / 5 / 26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>다시하기</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4 / 3 / 8</t>
+          <t>0 / 0 / 0</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9 / 2 / 7</t>
+          <t>1 / 3 / 25</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7 / 5 / 7</t>
+          <t>2 / 9 / 15</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5 / 6 / 5</t>
+          <t>8 / 13 / 4</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9 / 8 / 8</t>
+          <t>7 / 5 / 13</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12 / 4 / 12</t>
+          <t>1 / 11 / 2</t>
         </is>
       </c>
     </row>
@@ -777,19 +777,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4 / 6 / 5</t>
+          <t>3 / 4 / 0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6 / 3 / 8</t>
+          <t>0 / 5 / 1</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8 / 1 / 5</t>
+          <t>2 / 6 / 12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1 / 5 / 1</t>
+          <t>3 / 3 / 12</t>
         </is>
       </c>
     </row>
@@ -825,55 +825,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3 / 10 / 11</t>
+          <t>4 / 5 / 12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6 / 2 / 6</t>
+          <t>5 / 6 / 6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3 / 0 / 6</t>
+          <t>8 / 6 / 9</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7 / 12 / 4</t>
+          <t>3 / 2 / 5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7 / 2 / 13</t>
+          <t>3 / 4 / 10</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2 / 9 / 10</t>
+          <t>4 / 5 / 2</t>
         </is>
       </c>
     </row>
@@ -897,79 +897,79 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8 / 1 / 3</t>
+          <t>3 / 10 / 19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4 / 0 / 1</t>
+          <t>2 / 11 / 5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5 / 4 / 14</t>
+          <t>5 / 10 / 6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10 / 3 / 9</t>
+          <t>12 / 17 / 18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3 / 5 / 5</t>
+          <t>8 / 18 / 26</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7 / 1 / 1</t>
+          <t>2 / 10 / 21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5 / 6 / 4</t>
+          <t>6 / 8 / 9</t>
         </is>
       </c>
     </row>
@@ -981,31 +981,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6 / 1 / 1</t>
+          <t>2 / 0 / 3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7 / 0 / 12</t>
+          <t>3 / 5 / 16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5 / 6 / 6</t>
+          <t>7 / 12 / 18</t>
         </is>
       </c>
     </row>
@@ -1017,31 +1017,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9 / 2 / 13</t>
+          <t>8 / 6 / 7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4 / 1 / 3</t>
+          <t>1 / 11 / 4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8 / 4 / 9</t>
+          <t>5 / 10 / 14</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3 / 0 / 1</t>
+          <t>5 / 4 / 5</t>
         </is>
       </c>
     </row>
@@ -1065,823 +1065,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3 / 5 / 1</t>
+          <t>1 / 7 / 0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1 / 5 / 8</t>
+          <t>2 / 6 / 21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3 / 2 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2 / 3 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>4 / 2 / 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>10 / 1 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1 / 2 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0 / 3 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>8 / 2 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>6 / 1 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>4 / 5 / 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>10 / 6 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0 / 2 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>4 / 2 / 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1 / 6 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>4 / 9 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>8 / 3 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1 / 4 / 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>3 / 4 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>3 / 3 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>7 / 3 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2 / 4 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>7 / 5 / 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2 / 2 / 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>4 / 5 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0 / 3 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1 / 2 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>6 / 5 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>4 / 1 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>7 / 0 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1 / 5 / 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>10 / 2 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2 / 0 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>5 / 7 / 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>4 / 3 / 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>4 / 4 / 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7 / 0 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>10 / 2 / 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>3 / 0 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>6 / 5 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>4 / 5 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>5 / 5 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>4 / 2 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>11 / 5 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1 / 5 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>11 / 3 / 24</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>15 / 7 / 16</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1 / 5 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>3 / 5 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>11 / 4 / 17</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>9 / 4 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>7 / 0 / 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>9 / 0 / 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>5 / 7 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>9 / 9 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>7 / 3 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>11 / 3 / 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>7 / 10 / 16</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>4 / 6 / 21</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>3 / 2 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>7 / 4 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>4 / 2 / 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>5 / 0 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1 / 6 / 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>6 / 4 / 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>8 / 6 / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>패배</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>8 / 4 / 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>5 / 0 / 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>승리</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>10 / 3 / 13</t>
+          <t>1 / 9 / 9</t>
         </is>
       </c>
     </row>
